--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H2">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I2">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J2">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>2.761584981839445</v>
+        <v>13.047446579585</v>
       </c>
       <c r="R2">
-        <v>24.854264836555</v>
+        <v>117.427019216265</v>
       </c>
       <c r="S2">
-        <v>0.001522139468727177</v>
+        <v>0.00866426208956253</v>
       </c>
       <c r="T2">
-        <v>0.001522139468727177</v>
+        <v>0.008664262089562526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H3">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I3">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J3">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>186.5066959416228</v>
+        <v>222.9193012078597</v>
       </c>
       <c r="R3">
-        <v>1678.560263474605</v>
+        <v>2006.273710870737</v>
       </c>
       <c r="S3">
-        <v>0.1027993724406587</v>
+        <v>0.1480313591403462</v>
       </c>
       <c r="T3">
-        <v>0.1027993724406588</v>
+        <v>0.1480313591403462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H4">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I4">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J4">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>108.7824969603167</v>
+        <v>55.90504868504966</v>
       </c>
       <c r="R4">
-        <v>979.0424726428498</v>
+        <v>503.1454381654469</v>
       </c>
       <c r="S4">
-        <v>0.05995909349843752</v>
+        <v>0.03712419828527322</v>
       </c>
       <c r="T4">
-        <v>0.05995909349843753</v>
+        <v>0.03712419828527321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.081081666666667</v>
+        <v>4.877851</v>
       </c>
       <c r="H5">
-        <v>12.243245</v>
+        <v>14.633553</v>
       </c>
       <c r="I5">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J5">
-        <v>0.1646100170538642</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.5976444821511111</v>
+        <v>0.027481812534</v>
       </c>
       <c r="R5">
-        <v>5.37880033936</v>
+        <v>0.247336312806</v>
       </c>
       <c r="S5">
-        <v>0.0003294116460407771</v>
+        <v>1.824951917131161E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003294116460407772</v>
+        <v>1.824951917131161E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.762102333333333</v>
+        <v>4.877851</v>
       </c>
       <c r="H6">
-        <v>11.286307</v>
+        <v>14.633553</v>
       </c>
       <c r="I6">
-        <v>0.1517440178437291</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="J6">
-        <v>0.1517440178437291</v>
+        <v>0.1938694113040554</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>2.545738152885889</v>
+        <v>0.047198086276</v>
       </c>
       <c r="R6">
-        <v>22.911643375973</v>
+        <v>0.424782776484</v>
       </c>
       <c r="S6">
-        <v>0.00140316830553271</v>
+        <v>3.134226970209641E-05</v>
       </c>
       <c r="T6">
-        <v>0.00140316830553271</v>
+        <v>3.13422697020964E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>11.286307</v>
       </c>
       <c r="I7">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J7">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>171.9292416310226</v>
+        <v>10.06300299478167</v>
       </c>
       <c r="R7">
-        <v>1547.363174679203</v>
+        <v>90.567026953035</v>
       </c>
       <c r="S7">
-        <v>0.094764523357379</v>
+        <v>0.006682418266518338</v>
       </c>
       <c r="T7">
-        <v>0.09476452335737902</v>
+        <v>0.006682418266518336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>11.286307</v>
       </c>
       <c r="I8">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J8">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>100.2800039467233</v>
+        <v>171.9292416310226</v>
       </c>
       <c r="R8">
-        <v>902.5200355205099</v>
+        <v>1547.363174679203</v>
       </c>
       <c r="S8">
-        <v>0.055272661509679</v>
+        <v>0.1141709989969766</v>
       </c>
       <c r="T8">
-        <v>0.05527266150967901</v>
+        <v>0.1141709989969766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>11.286307</v>
       </c>
       <c r="I9">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J9">
-        <v>0.1517440178437291</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>0.5509322979662222</v>
+        <v>43.11745358829922</v>
       </c>
       <c r="R9">
-        <v>4.958390681696001</v>
+        <v>388.057082294693</v>
       </c>
       <c r="S9">
-        <v>0.0003036646711383743</v>
+        <v>0.02863249266780714</v>
       </c>
       <c r="T9">
-        <v>0.0003036646711383744</v>
+        <v>0.02863249266780713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.946064666666667</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H10">
-        <v>8.838194</v>
+        <v>11.286307</v>
       </c>
       <c r="I10">
-        <v>0.1188292209349205</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J10">
-        <v>0.1188292209349205</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>1.993542056618444</v>
+        <v>0.021195684546</v>
       </c>
       <c r="R10">
-        <v>17.941878509566</v>
+        <v>0.190761160914</v>
       </c>
       <c r="S10">
-        <v>0.001098807049901208</v>
+        <v>1.40751652021767E-05</v>
       </c>
       <c r="T10">
-        <v>0.001098807049901209</v>
+        <v>1.40751652021767E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.946064666666667</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H11">
-        <v>8.838194</v>
+        <v>11.286307</v>
       </c>
       <c r="I11">
-        <v>0.1188292209349205</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="J11">
-        <v>0.1188292209349205</v>
+        <v>0.1495241582059285</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>134.6360675646918</v>
+        <v>0.03640210217733333</v>
       </c>
       <c r="R11">
-        <v>1211.724608082226</v>
+        <v>0.327618919596</v>
       </c>
       <c r="S11">
-        <v>0.07420914934797068</v>
+        <v>2.417310942425661E-05</v>
       </c>
       <c r="T11">
-        <v>0.0742091493479707</v>
+        <v>2.417310942425661E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H12">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I12">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J12">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>78.52826697004666</v>
+        <v>9.664457929451666</v>
       </c>
       <c r="R12">
-        <v>706.7544027304199</v>
+        <v>86.980121365065</v>
       </c>
       <c r="S12">
-        <v>0.04328346777372579</v>
+        <v>0.006417761202819459</v>
       </c>
       <c r="T12">
-        <v>0.0432834677737258</v>
+        <v>0.006417761202819457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.946064666666667</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H13">
-        <v>8.838194</v>
+        <v>10.839313</v>
       </c>
       <c r="I13">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J13">
-        <v>0.1188292209349205</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>0.4314295659591111</v>
+        <v>165.1199868913086</v>
       </c>
       <c r="R13">
-        <v>3.882866093632</v>
+        <v>1486.079882021777</v>
       </c>
       <c r="S13">
-        <v>0.0002377967633227727</v>
+        <v>0.1096492584909232</v>
       </c>
       <c r="T13">
-        <v>0.0002377967633227727</v>
+        <v>0.1096492584909231</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.92741</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H14">
-        <v>11.78223</v>
+        <v>10.839313</v>
       </c>
       <c r="I14">
-        <v>0.1584116858914896</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J14">
-        <v>0.1584116858914896</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>2.657598489663333</v>
+        <v>41.40978755996522</v>
       </c>
       <c r="R14">
-        <v>23.91838640697</v>
+        <v>372.688088039687</v>
       </c>
       <c r="S14">
-        <v>0.001464823852877354</v>
+        <v>0.02749850327450482</v>
       </c>
       <c r="T14">
-        <v>0.001464823852877355</v>
+        <v>0.02749850327450481</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.92741</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H15">
-        <v>11.78223</v>
+        <v>10.839313</v>
       </c>
       <c r="I15">
-        <v>0.1584116858914896</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J15">
-        <v>0.1584116858914896</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>179.4838531879633</v>
+        <v>0.020356229814</v>
       </c>
       <c r="R15">
-        <v>1615.35467869167</v>
+        <v>0.183206068326</v>
       </c>
       <c r="S15">
-        <v>0.09892849893565818</v>
+        <v>1.351771851971611E-05</v>
       </c>
       <c r="T15">
-        <v>0.09892849893565819</v>
+        <v>1.35177185197161E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.92741</v>
+        <v>3.613104333333334</v>
       </c>
       <c r="H16">
-        <v>11.78223</v>
+        <v>10.839313</v>
       </c>
       <c r="I16">
-        <v>0.1584116858914896</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="J16">
-        <v>0.1584116858914896</v>
+        <v>0.1436022564205969</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>104.6863310471</v>
+        <v>0.03496039752933334</v>
       </c>
       <c r="R16">
-        <v>942.1769794238998</v>
+        <v>0.314643577764</v>
       </c>
       <c r="S16">
-        <v>0.05770135533431663</v>
+        <v>2.321573382974318E-05</v>
       </c>
       <c r="T16">
-        <v>0.05770135533431664</v>
+        <v>2.321573382974317E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.92741</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H17">
-        <v>11.78223</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I17">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J17">
-        <v>0.1584116858914896</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>0.5751403934933332</v>
+        <v>6.598463975168332</v>
       </c>
       <c r="R17">
-        <v>5.176263541439999</v>
+        <v>59.38617577651499</v>
       </c>
       <c r="S17">
-        <v>0.0003170077686374017</v>
+        <v>0.004381763199463775</v>
       </c>
       <c r="T17">
-        <v>0.0003170077686374018</v>
+        <v>0.004381763199463774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.220197666666667</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H18">
-        <v>21.660593</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I18">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J18">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>4.885760950347445</v>
+        <v>112.7366162733541</v>
       </c>
       <c r="R18">
-        <v>43.971848553127</v>
+        <v>1014.629546460187</v>
       </c>
       <c r="S18">
-        <v>0.002692949746683629</v>
+        <v>0.07486365891783928</v>
       </c>
       <c r="T18">
-        <v>0.002692949746683629</v>
+        <v>0.07486365891783928</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.220197666666667</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H19">
-        <v>21.660593</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I19">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J19">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>329.9652692212108</v>
+        <v>28.27276950537744</v>
       </c>
       <c r="R19">
-        <v>2969.687422990897</v>
+        <v>254.454925548397</v>
       </c>
       <c r="S19">
-        <v>0.1818713394277845</v>
+        <v>0.01877476052484231</v>
       </c>
       <c r="T19">
-        <v>0.1818713394277845</v>
+        <v>0.01877476052484231</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.220197666666667</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H20">
-        <v>21.660593</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I20">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J20">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>192.4566070662766</v>
+        <v>0.013898332434</v>
       </c>
       <c r="R20">
-        <v>1732.10946359649</v>
+        <v>0.125084991906</v>
       </c>
       <c r="S20">
-        <v>0.106078863970998</v>
+        <v>9.229299701020404E-06</v>
       </c>
       <c r="T20">
-        <v>0.106078863970998</v>
+        <v>9.229299701020402E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.220197666666667</v>
+        <v>2.466867666666666</v>
       </c>
       <c r="H21">
-        <v>21.660593</v>
+        <v>7.400602999999999</v>
       </c>
       <c r="I21">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="J21">
-        <v>0.2912259440309176</v>
+        <v>0.09804526261701627</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>1.057345000167111</v>
+        <v>0.02386941154266667</v>
       </c>
       <c r="R21">
-        <v>9.516105001504</v>
+        <v>0.214824703884</v>
       </c>
       <c r="S21">
-        <v>0.0005827908854514742</v>
+        <v>1.585067516987459E-05</v>
       </c>
       <c r="T21">
-        <v>0.0005827908854514743</v>
+        <v>1.585067516987458E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.855569666666666</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H22">
-        <v>8.566708999999999</v>
+        <v>25.616621</v>
       </c>
       <c r="I22">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J22">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>1.932305930183444</v>
+        <v>22.84007814417833</v>
       </c>
       <c r="R22">
-        <v>17.390753371651</v>
+        <v>205.560703297605</v>
       </c>
       <c r="S22">
-        <v>0.001065054720868554</v>
+        <v>0.01516713802813243</v>
       </c>
       <c r="T22">
-        <v>0.001065054720868554</v>
+        <v>0.01516713802813243</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.855569666666666</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H23">
-        <v>8.566708999999999</v>
+        <v>25.616621</v>
       </c>
       <c r="I23">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J23">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>130.5004180414068</v>
+        <v>390.2291707712121</v>
       </c>
       <c r="R23">
-        <v>1174.503762372661</v>
+        <v>3512.062536940909</v>
       </c>
       <c r="S23">
-        <v>0.07192964847813982</v>
+        <v>0.2591348268744532</v>
       </c>
       <c r="T23">
-        <v>0.07192964847813983</v>
+        <v>0.2591348268744532</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.855569666666666</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H24">
-        <v>8.566708999999999</v>
+        <v>25.616621</v>
       </c>
       <c r="I24">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J24">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>76.11609469159664</v>
+        <v>97.86402824737543</v>
       </c>
       <c r="R24">
-        <v>685.0448522243698</v>
+        <v>880.7762542263789</v>
       </c>
       <c r="S24">
-        <v>0.04195391874498191</v>
+        <v>0.06498739693652621</v>
       </c>
       <c r="T24">
-        <v>0.04195391874498192</v>
+        <v>0.06498739693652621</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.855569666666666</v>
+        <v>8.538873666666666</v>
       </c>
       <c r="H25">
-        <v>8.566708999999999</v>
+        <v>25.616621</v>
       </c>
       <c r="I25">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="J25">
-        <v>0.115179114245079</v>
+        <v>0.3393761742530405</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>0.4181772368391111</v>
+        <v>0.04810801423799999</v>
       </c>
       <c r="R25">
-        <v>3.763595131552</v>
+        <v>0.432972128142</v>
       </c>
       <c r="S25">
-        <v>0.0002304923010886688</v>
+        <v>3.194651470109301E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002304923010886689</v>
+        <v>3.1946514701093E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.538873666666666</v>
+      </c>
+      <c r="H26">
+        <v>25.616621</v>
+      </c>
+      <c r="I26">
+        <v>0.3393761742530405</v>
+      </c>
+      <c r="J26">
+        <v>0.3393761742530405</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.08262214159866667</v>
+      </c>
+      <c r="R26">
+        <v>0.743599274388</v>
+      </c>
+      <c r="S26">
+        <v>5.486589922750727E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.486589922750725E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.901699333333333</v>
+      </c>
+      <c r="H27">
+        <v>5.705098</v>
+      </c>
+      <c r="I27">
+        <v>0.07558273719936258</v>
+      </c>
+      <c r="J27">
+        <v>0.07558273719936257</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>5.086731936276666</v>
+      </c>
+      <c r="R27">
+        <v>45.78058742648999</v>
+      </c>
+      <c r="S27">
+        <v>0.003377885351468574</v>
+      </c>
+      <c r="T27">
+        <v>0.003377885351468573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.901699333333333</v>
+      </c>
+      <c r="H28">
+        <v>5.705098</v>
+      </c>
+      <c r="I28">
+        <v>0.07558273719936258</v>
+      </c>
+      <c r="J28">
+        <v>0.07558273719936257</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>86.90824842622689</v>
+      </c>
+      <c r="R28">
+        <v>782.1742358360419</v>
+      </c>
+      <c r="S28">
+        <v>0.05771212302090074</v>
+      </c>
+      <c r="T28">
+        <v>0.05771212302090073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.901699333333333</v>
+      </c>
+      <c r="H29">
+        <v>5.705098</v>
+      </c>
+      <c r="I29">
+        <v>0.07558273719936258</v>
+      </c>
+      <c r="J29">
+        <v>0.07558273719936257</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>21.79537542543355</v>
+      </c>
+      <c r="R29">
+        <v>196.158378828902</v>
+      </c>
+      <c r="S29">
+        <v>0.01447339476536667</v>
+      </c>
+      <c r="T29">
+        <v>0.01447339476536666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.901699333333333</v>
+      </c>
+      <c r="H30">
+        <v>5.705098</v>
+      </c>
+      <c r="I30">
+        <v>0.07558273719936258</v>
+      </c>
+      <c r="J30">
+        <v>0.07558273719936257</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>0.010714174044</v>
+      </c>
+      <c r="R30">
+        <v>0.09642756639599999</v>
+      </c>
+      <c r="S30">
+        <v>7.114833651486522E-06</v>
+      </c>
+      <c r="T30">
+        <v>7.114833651486519E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.901699333333333</v>
+      </c>
+      <c r="H31">
+        <v>5.705098</v>
+      </c>
+      <c r="I31">
+        <v>0.07558273719936258</v>
+      </c>
+      <c r="J31">
+        <v>0.07558273719936257</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>0.01840084274933333</v>
+      </c>
+      <c r="R31">
+        <v>0.165607584744</v>
+      </c>
+      <c r="S31">
+        <v>1.221922797511246E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.221922797511245E-05</v>
       </c>
     </row>
   </sheetData>
